--- a/Secretarias/SEGOB/CEBV/CEBV_OK.xlsx
+++ b/Secretarias/SEGOB/CEBV/CEBV_OK.xlsx
@@ -1,39 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Carmona\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\CEBV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DarkcShadow\Documents\GitHub\MapasTematicos\Secretarias\SEGOB\CEBV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA741AD-643A-461E-A72F-C63BBF085661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC62FC-205D-4E4C-9902-040D97A6BC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{991460AF-BB46-4834-9DA7-6BBF4797D298}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{991460AF-BB46-4834-9DA7-6BBF4797D298}"/>
   </bookViews>
   <sheets>
     <sheet name="DIR OFICINAS" sheetId="1" r:id="rId1"/>
-    <sheet name="ACTIVIDADES" sheetId="3" r:id="rId2"/>
-    <sheet name="OFICINAS" sheetId="5" r:id="rId3"/>
+    <sheet name="OFICINAS" sheetId="5" r:id="rId2"/>
+    <sheet name="ACTIVIDADES" sheetId="3" r:id="rId3"/>
+    <sheet name="ACTIVIDADES_2022" sheetId="7" r:id="rId4"/>
+    <sheet name="ACTIVIDADES_2023" sheetId="6" r:id="rId5"/>
+    <sheet name="ACTIVIDADES_2024" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>David Hernández Enríquez</author>
+  </authors>
+  <commentList>
+    <comment ref="B64" authorId="0" shapeId="0" xr:uid="{F6DE3569-5F1F-45E1-B482-788692C8D1CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>David Hernández Enríquez:
+La fila en el documento original contenía Actividad pero no Clave ni minucipio</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="400">
   <si>
     <t>CVGEO</t>
   </si>
@@ -248,13 +268,1003 @@
   </si>
   <si>
     <t>Nanchital de Lázaro Cárdenas</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>FOTO2</t>
+  </si>
+  <si>
+    <t>Capacitación "Protocolo Homologado de Búsqueda; Búsqueda de Mujeres, Adolescentes y Niñas" a personal de Radiotelevisión de Veracruz (RTV). 2023-01-25</t>
+  </si>
+  <si>
+    <t>Enero - Marzo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52903596503_853bff14a4_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perote </t>
+  </si>
+  <si>
+    <t>Capacitación “Protocolo Homologado de Búsqueda de Personas Desaparecidas y Búsqueda de Mujeres, Niñas y Adolescentes” a personal de los de los Institutos Municipales de la Mujer de Jalacingo, Acajete, Las Vigas, Banderilla, Ixhuacán de los Reyes, Tatatila, Altotonga y Perote, en el municipio de Perote, Ver. 2023-02-10</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52903172186_e141e4046e_z.jpg</t>
+  </si>
+  <si>
+    <t>Jalacingo</t>
+  </si>
+  <si>
+    <t>Capacitación “Protocolo Homologado de Búsqueda de Personas Desaparecidas y Búsqueda de Mujeres, Niñas y Adolescentes” a personal de los de los Institutos Municipales de la Mujer de Jalacingo, Acajete, Las Vigas, Banderilla, Ixhuacán de Los Reyes, Tatatila, Altotonga y Perote, en el municipio de Perote, Ver. 2023-02-10</t>
+  </si>
+  <si>
+    <t>Acajete</t>
+  </si>
+  <si>
+    <t>Las Vigas de Ramírez</t>
+  </si>
+  <si>
+    <t>Banderilla</t>
+  </si>
+  <si>
+    <t>Ixhuacán de Los Reyes</t>
+  </si>
+  <si>
+    <t>Tatatila</t>
+  </si>
+  <si>
+    <t>Poza Rica de Hidalgo</t>
+  </si>
+  <si>
+    <t>Charla "Atención de reportes y sensibilización sobre la problemática de la desaparición en Veracruz" para la comunidad estudiantil del Instituto Tecnológico de Poza Rica, como parte de la Jornada Murales Memoria Viva, evento organizado por el Centro de Derecho Humanos Toaltepeyolo; Familiares en Búsqueda María Herrera Poza Rica; USAID México, a través de su actividad Promoviendo la Rendición de Cuentas por los Derechos Humanos (RED-DH); y la Comisión Estatal de Búsqueda de Veracruz. 2023-02-16</t>
+  </si>
+  <si>
+    <t>Capacitación "Protocolo Homologado de Búsqueda de Personas Desaparecidas y Atención de Reportes en el estado de Veracruz" a personal de la SEGOB, como parte del Programa Anual de Trabajo de la Unidad de Género 2023, en cumplimiento a la Declaratoria de Alerta de Violencia de Género Contra las Mujeres. 2023-02-16</t>
+  </si>
+  <si>
+    <t>Actopan</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” para la comunidad estudiantil de la Secundaria General “Emiliano Zapata” del municipio de Actopan, en el marco de la “Semana Escolar Contra las Adicciones y Sobre la Educación Sexual”, coordinado por el Consejo Estatal de Población. 2023-02-27</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” para estudiantes de la Escuela de Bachilleres Tlapacoyan, como parte de las Salas Temáticas de Desarrollo Integral para Adolescentes “Yo decido mi futuro”, coordinadas por el Consejo Estatal de Población. 2023-03-02</t>
+  </si>
+  <si>
+    <t>Capacitación "Protocolo Homologado de Búsqueda de Personas Desaparecidas y Atención de Reportes en el estado de Veracruz" a personal de la SEGOB, como parte del Programa Anual de Trabajo de la Unidad de Género 2023, en cumplimiento a la Declaratoria de Alerta de Violencia de Género Contra las Mujeres. 2023-03-03</t>
+  </si>
+  <si>
+    <t>Asistencia al Foro "Innovación en intervenciones artísticas y comunitarias por la igualdad sustantiva y la cultura de paz", Mesa 2: Procesos de incidencia institucional mediante el arte y la cultura en la difusión de los derechos humanos de las mujeres, en el marco del Día Internacional de las Mujeres. 2023-03-09</t>
+  </si>
+  <si>
+    <t>Tlacojalpan</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes”, como parte de la Jornada Integral para adolescentes "Yo decido mi futuro", en el marco de la estrategia “Verbenas por la paz”, en el Auditorio Municipal de Tlacojalpan. 2023-03-10</t>
+  </si>
+  <si>
+    <t>Capacitación a personal de la Mesa de Construcción de Paz y Seguridad Región Xalapa, a la cual asistieron servidoras y servidores públicos de los municipios de Acatlán, Actopan, Alto Lucero, Úrsulo Galván, Xalapa, Tlaltetela, Miahuatlán, Chiconquiaco, Puente Nacional, Juchique de Ferrer y Tenampa. Asimismo se contó con personal de la SEDENA, Guardia Nacional, Centro Nacional de Inteligencia, Secretaría de Seguridad Pública, Fiscalía General del Estado, Secretaría de Seguridad y Protección Ciudadana. 2023-03-23</t>
+  </si>
+  <si>
+    <t>Acatlán</t>
+  </si>
+  <si>
+    <t>Alto Lucero de Gutiérrez Barrios</t>
+  </si>
+  <si>
+    <t>Úrsulo Galván</t>
+  </si>
+  <si>
+    <t>Tlaltetela</t>
+  </si>
+  <si>
+    <t>Miahuatlán</t>
+  </si>
+  <si>
+    <t>Chiconquiaco</t>
+  </si>
+  <si>
+    <t>Puente Nacional</t>
+  </si>
+  <si>
+    <t>Juchique de Ferrer</t>
+  </si>
+  <si>
+    <t>Tenampa</t>
+  </si>
+  <si>
+    <t>Tamiahua</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” para estudiantes del COBAEV 09 Leoncio Ramos Careaga del municipio de Tamiahua, como parte de las Salas Temáticas de Desarrollo Integral para Adolescentes “Yo decido mi futuro”, coordinadas por el Consejo Estatal de Población. 2023-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatzacoalcos </t>
+  </si>
+  <si>
+    <t>Charla sobre el Protocolo para la búsqueda de personas y redes de apoyo para la preveción brindada a estudiantes dentro de la Jornada "Memoria Viva por Nuestras Desaparecidas y Desaparecidos".</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118294549_23cf6a763d_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixtla de Altamirano </t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” a estudiantes de nivel básico, en el marco de las Salas Temáticas “Yo decido mi futuro” que coordina el Consejo Estatal de Población.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118012336_7ff1ba4f85_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ozuluama de Mascareñas </t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” a estudiantes de nivel medio superior, en el marco de las Salas Temáticas “Yo decido mi futuro” que coordina el Consejo Estatal de Población.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118287483_5aa87200ba_h.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación sobre el Protocolo Homologado de Búsqueda y Búsqueda con enfoque diferenciado al personal del Instituto Veracruzano de las Mujeres bajo el Programa de Apoyo a las Instancias de Mujeres en las Entidades Federativas.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118289753_8e2d3e03d1_h.jpg</t>
+  </si>
+  <si>
+    <t>Álamo Temapache</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118024236_85923ab3b1_k.jpg</t>
+  </si>
+  <si>
+    <t>Taller para la conformación de Grupos de Búsqueda Municipales a a personas servidoras públicas de los ayuntamientos den seguimiento al Plan Integral de Búsqueda Inmediata, a través de la conformación de Grupos de Búsqueda Municipales en el Estado de Veracruz.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118299428_08324a9ae5_h.jpg</t>
+  </si>
+  <si>
+    <t>Mesa de Trabajo para la Atención de Reportes de Personas de la Comunidad LGBTTTI+ con personal adscrito a la Comisión Estatal de Búsqueda.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53315913267_2281b14569_k.jpg</t>
+  </si>
+  <si>
+    <t>Acción colectiva con compañeras de la Comisión Estatal de Búsqueda, para compartir y reflexionar sobre los cuidados: el cuidado de sí y el cuidado en colectivo, a través de la palabra y el movimiento de nuestras manos sobre el textil.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53317429885_dbebfbabb7_h.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación en materia de desaparición de personas, impartida a personas servidoras públicas de las distintas áreas de la Secretaría de Gobierno, en el marco del 30 de agosto Día Internacional de las Víctimas de Desapariciones Forzadas.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53317199093_134ebed483_b.jpg</t>
+  </si>
+  <si>
+    <t>Chontla</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” en el Colegio de Bachilleres del Estado de Veracruz COBAEV 41, en el marco de las Salas Temáticas “Yo decido mi futuro” que coordina el Consejo Estatal de Población.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53317199088_d742fe9cd3_b.jpg</t>
+  </si>
+  <si>
+    <t>Yanga</t>
+  </si>
+  <si>
+    <t>Charla “Búsqueda de niñas, niños y adolescentes” en el Colegio de Bachilleres del Estado de Veracruz COBAEV 29 “Gaspar Yanga”,  en el marco de las Salas Temáticas “Yo decido mi futuro” que coordina el Consejo Estatal de Población.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53317429880_91a8108e25_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/53317313304_e935107abd_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coacoatzintla </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118383979_e902096df5_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118325123_7b69cdd04f_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xico </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118392634_0f98c2a3c8_k.jpg</t>
+  </si>
+  <si>
+    <t>San Andrés Tlalnehuayocan</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118376773_b4f3664cfd_k.jpg</t>
+  </si>
+  <si>
+    <t>Taller para la conformación de Grupos de Búsqueda Municipales a a personas servidoras públicas de los ayuntamientos en seguimiento al Plan Integral de Búsqueda Inmediata, a través de la conformación de Grupos de Búsqueda Municipales en el Estado de Veracruz.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118569105_c0ad011954_h.jpg</t>
+  </si>
+  <si>
+    <t>Emiliano Zapata</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118442189_915e585e92_k.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veracruz </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118444664_729eacc346_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación en materia de Protocolo Homologado de Búsqueda a servidoras y servidores público del Ayuntamiento de Coatzacoalcos </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118581680_6d12e5afa8_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Córdoba </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118122191_c7ebfdd911_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coscomatepec </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118587075_176fef9cde_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuxpan </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118126871_3d0ba12cdf_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martínez de la Torre </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54117268697_961cb49e75_b.jpg</t>
+  </si>
+  <si>
+    <t>26 de enero: entrega de Diplomas a personal de la CEBV especializado en búsqueda de personas por parte del Gobernador del Estado de Veracruz, C. Cuitláhuac García Jiménez.</t>
+  </si>
+  <si>
+    <t>59  familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52131198892_ab49dbcee5_c.jpg</t>
+  </si>
+  <si>
+    <t>Amatlán de los Reyes</t>
+  </si>
+  <si>
+    <t>07 al 11 de marzo de 2022: se llevaron a cabo acciones de difusión de búsqueda en vida en acompañamiento al colectivo "Unidos por amor a ti"</t>
+  </si>
+  <si>
+    <t>14 familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52131300967_7e7e3913ae_c.jpg</t>
+  </si>
+  <si>
+    <t>Cosamaloapan de Carpio</t>
+  </si>
+  <si>
+    <t>San Andrés Tuxtla</t>
+  </si>
+  <si>
+    <t>Acayucan</t>
+  </si>
+  <si>
+    <t>18 familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52133426177_39dc98f15d_z.jpg</t>
+  </si>
+  <si>
+    <t>Nanchital de Lázaro Cárdenas del Río</t>
+  </si>
+  <si>
+    <t>14 al 18 de marzo de 2022: acciones de difusión de búsqueda en vida con el Colectivo "Madres en Búsqueda Coatzacoalcos" en colaboración con la Comisión de Búsqueda de Personas de Tabasco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 famiilias </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52133898887_7c567a84f6_c.jpg</t>
+  </si>
+  <si>
+    <t>Orizaba</t>
+  </si>
+  <si>
+    <t>19 de marzo: taller previo a las jornadas de difusión de búsqueda en vida dirigido al Colectivo "Familiares Desaparecidos Orizaba-Córdoba".</t>
+  </si>
+  <si>
+    <t>12 familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52134211481_16ea59f6b9_c.jpg</t>
+  </si>
+  <si>
+    <t>El 26 de marzo de 2022 se llevó a cabo la jornada de difusión de búsqueda en vida del Colectivo "Familiares de Desaparecidos Orizaba-Córdoba".</t>
+  </si>
+  <si>
+    <t>58 Familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52134233411_48fa7c7d35_c.jpg</t>
+  </si>
+  <si>
+    <t>Ixtaczoquitlán</t>
+  </si>
+  <si>
+    <t>Tuxpan</t>
+  </si>
+  <si>
+    <t>Del 18 al 27 de abril de 2022 se llevó a cabo una Jornada de Búsqueda en Vida con famialiares de personas desaparecidas, la cual incluyó acciones de búsqueda en Centros de Reinserción Social y espacios Públicos</t>
+  </si>
+  <si>
+    <t>Abril - Junio</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261001436_8223b14184_c.jpg</t>
+  </si>
+  <si>
+    <t>Veracruz</t>
+  </si>
+  <si>
+    <t>El 12 de abril se ralizaron acciones de búsqueda en vida en el Centro Estatal contra las Adicciones "Cuspide", parque Zamora, Hospital Regional y el Albergue Municipal para personas en situación de calle del municipio de Veracruz, en compañía del colectivo "Juntos Hasta Encontrarlos, A.C."</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261030281_3b51ef3c23_c.jpg</t>
+  </si>
+  <si>
+    <t>Xochitepec</t>
+  </si>
+  <si>
+    <t>El 25 de abril la CEBV participó en el Segundo Encuentro de la Coordinación Nacional Técnica de Armonización y Aplicación del Protocolo Alba, llevada a cabo en Xochitepec, Morelos, con la finalildad de presentar un documento para los lineamientos básicos de un Protocolo ALBA a nivel nacional y así poder hacer más eficiente la coordinación interinstitucional ante la desaparición de mujeres, mujeres transgénero, niñas y adolescentes de todo el país.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261162566_3f62c157ea_c.jpg</t>
+  </si>
+  <si>
+    <t>El 27 de abril personal de la CEBV impartió el taller "Busqueda de mujeres, niñas u adolescentes con perspectiva de genero y enfoque diferenciado", a personal del Instituto Municipal de la Mujer del H. Ayuntamiento de Coatzacoalcos.</t>
+  </si>
+  <si>
+    <t>9 servidoras públicas asistieron al taller</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261657485_20d0706737_c.jpg</t>
+  </si>
+  <si>
+    <t>Zongolica</t>
+  </si>
+  <si>
+    <t>El 29 de abril personal de la CEBV, impartió la capacitación virtual "Protocolo Alba y búsqueda de mujeres, niñas y adolescentes con perspectiva de género y enfoque diferenciado" a personal de Centros Coordinadores del Instituto Nacional de los Pueblos indigenas (INPI), de los municipios de Zongolica, Soledad Atzompa, Papantla, Acayucan, Chicontepec, Uxpanapa y Huayacocotla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta con registro del número de personas que tomaron la capacitación. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261477364_5866d64ed5_c.jpg</t>
+  </si>
+  <si>
+    <t>Soledad Atzompa</t>
+  </si>
+  <si>
+    <t>Papantla</t>
+  </si>
+  <si>
+    <t>Chicontepec</t>
+  </si>
+  <si>
+    <t>Uxpanapa</t>
+  </si>
+  <si>
+    <t>Huayacocotla</t>
+  </si>
+  <si>
+    <t>Durante los meses de mayo y junio se impartieron Talleres Regionales para la conformación de Grupos de Búsqueda Municipales: durante los días 16 y 17 de mayo en la región de Papantla, 18 y 19 de mayo en la región Poza Rica, 23 y 24 de mayo en la región de Veracruz, 25 y 26 de mayo en la región de Xalapa y 30 y 31 de mayo en Córdoba.  Posteriormente los días 6 y 7 de junio en Cosamaloapan, para finalizar el 8 y 9 de junio en Coatzacoalcos.</t>
+  </si>
+  <si>
+    <t>Asistieron 349 servidoras y servidores públicos municipales</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261737235_7ca0bb2fa1_c.jpg</t>
+  </si>
+  <si>
+    <t>Cosamaloapan</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261530694_96a3c0648b_c.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 26 de mayo, se realizaron acciones de búsqueda en vida con jornada de difusion en los municipios de Córdoba y Orizaba, con familiares de personas desaprecidas del Colectivo Luz, Fuerza y Lucha por Nuestros Desaparecidos. </t>
+  </si>
+  <si>
+    <t>10 familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261277861_964faac721_c.jpg</t>
+  </si>
+  <si>
+    <t>Rafael Lucio</t>
+  </si>
+  <si>
+    <t>Jornada de Difusión en acompañamiento a familiares de personas desaparecidas en los municipios de: Rafael Lucio,  La Joya,  Acajete, Las vigas, Cruz  Blanca,  Los molinos y Perote.</t>
+  </si>
+  <si>
+    <t>4 familias</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52261800979_6c7a3c08b9_c.jpg</t>
+  </si>
+  <si>
+    <t>La Joya</t>
+  </si>
+  <si>
+    <t>Perote</t>
+  </si>
+  <si>
+    <t>Cruz Blanca</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52262031065_d2fd7ddb20_c.jpg</t>
+  </si>
+  <si>
+    <t>Los Molinos</t>
+  </si>
+  <si>
+    <t>En el marco de la conformación e instalación de la Comisión para la Continuidad de la Atención de la Declaratoria AVGM del Consejo Estatal de Seguridad Publica, se participó en el Taller Alerta de Violencia de Género contra las Mujeres y sus implicaciones para los municipios, con el tema El Protocolo Homologado de Búsqueda de Personas y búsqueda de mujeres, los días 29 de junio en Veracruz y 30 de junio en Martínez de la Torre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se cuenta registro del número de personas que tomaron la capacitación. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52260604857_4335b1c577_z.jpg</t>
+  </si>
+  <si>
+    <t>Del 29 de junio y hasta el 8 de julio, se impartieron una serie de capacitaciones a servidoras y servidores públicos de los ayuntamientos de Tuxpan, Poza Rica, Córdoba, Minatitlán, Las Choapas y Coatzacoalcos, Como parte de los Acuerdos de la Comisión para la Continuidad de la Atención a la Declaratoria de Alerta de Violencia de Género contra las Mujeres del Consejo Estatal de Seguridad Pública y en coadyuvancia con el Instituto Veracruzano de las Mujeres, la Comisión Estatal de Derechos Humanos Veracruz, la Comisión Estatal de Búsqueda Veracruz y el Consejo Estatal de Población de Veracruz, y con la finalidad de fortalecer a los municipios vinculados a la Alerta de Violencia de Género contra las Mujeres del estado de Veracruz</t>
+  </si>
+  <si>
+    <t>Julio - Septiembre</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52444908714_30905794b6_z.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52444928264_e2d214676d_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Córdoba</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52444944704_df1ac50d1c_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Las Choapas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52444692201_8bba536bc0_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Minatitlán</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52444965654_2a9e636790_z.jpg</t>
+  </si>
+  <si>
+    <t>Filomeno Mata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 5 al 7 de julio, se realizó una jornada de difusión por parte de la oficina de Búsqueda Inmediata en los municipios de Filomeno Mata,  Mecatlán, Coyutla, Coahuitlan, Zococolco de Hidalgo, Zococolco de Guerrero, Coxquihui, Chumatlan y Espinal en acompañamiento al colectivo Familiares en Búsqueda María Herrera. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunque se realizó material de difusión para 3 personas, se incluyeron lonas y materiales del colectivo. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450267440_a676e99a8a_z.jpg</t>
+  </si>
+  <si>
+    <t>Mecatlán</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450103924_fce52339bb_z.jpg</t>
+  </si>
+  <si>
+    <t>Coyutla</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52449843701_4e74beacdb_z.jpg</t>
+  </si>
+  <si>
+    <t>Coahuitlán</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450132729_c2a4b9f627_z.jpg</t>
+  </si>
+  <si>
+    <t>Zozocolco de Hidalgo</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450316855_cc098ae865_z.jpg</t>
+  </si>
+  <si>
+    <t>Del 06 al 08 de julio de 2022, se llevaron a cabo acciones de difusión y acciones de búsqueda en vida en Coatzacoalcos, Nanchital e Ixhuatlán del sureste, en compañía del colectivo Madres en Búsqueda Belén González.</t>
+  </si>
+  <si>
+    <t>Se realizó material para una persona, sin embargo se imprimieron también collage con fotografías de 29 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450372050_3bd84eff88_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ixhuatlán del sureste</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450204814_cef30a04c4_z.jpg</t>
+  </si>
+  <si>
+    <t>El 8 de julio se realizó difusion Coatzacoalcos por parte de la oficina de Búsqueda Inmediata</t>
+  </si>
+  <si>
+    <t>1 persona</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52449944841_d32a54980c_z.jpg</t>
+  </si>
+  <si>
+    <t>Manlio Fabio Alatamirano</t>
+  </si>
+  <si>
+    <t>El día 8 de julio se realizó difusión en los municipios de Manlio Fabio Altamirano, Veracruz, Boca del Río y Medellín, Ver. por parte de la oficina de búsqueda inmediata</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52450224294_2707fbef54_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Medellín de Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xalapa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 13 al 16 de julio se llevó a cabo el tercer encuentro de Comisiones para la Búsqueda de Personas Migrantes Desaparecidas organizado por el Comité Intermacional de la Cruz Roja,Delegación Regional México Cd. Mx, con la finalidad de elaborar estrategias y acciones de búsqueda de personas migrantes desaparecidas en el país. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52451962943_7ed75dd46b_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiconquiaco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 25 al 29 de julio se llevaron a cabo acciones de búsqueda en vida y difusión, en los municipios de Chiconquiaco y Naolinco, en compañía de la víctima indirecta. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52451732724_0e2f3b9cae_z.jpg</t>
+  </si>
+  <si>
+    <t>Naolinco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El día 02 de agosto se realizaron acciones de búsqueda en vida en Veracuz Ver. por parte de la oficina de larga data, escenarios en vida. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52451819939_2412a24603_z.jpg</t>
+  </si>
+  <si>
+    <t>El 4 de agosto se llevó a cabo difusión de boletin de búsqueda en el municipio se Alto Lucero Ver. por parte de la oficina de larga data, escenarios en vida.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52451038437_7cdeb3e947_z.jpg</t>
+  </si>
+  <si>
+    <t>Camerino Z. Mendoza</t>
+  </si>
+  <si>
+    <t>Los días 08 y 09 de agosto se realizó una jornada de difusión de boletines de búsqueda del colectivo Unidas por Amor a Ti Córdoba, en los municipios de Camerino Z. Mendoza, Nogales, Río Blanco, Orizaba, Rafael Delgado, localidad de Jalapilla y Chocaman.</t>
+  </si>
+  <si>
+    <t>9 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52451591806_ae6c75d44a_z.jpg</t>
+  </si>
+  <si>
+    <t>Nogales</t>
+  </si>
+  <si>
+    <t>Río Blanco</t>
+  </si>
+  <si>
+    <t>Rafael Delgado (Jalapilla)</t>
+  </si>
+  <si>
+    <t>Chocamán</t>
+  </si>
+  <si>
+    <t>El día 10 de agosto se realizaron acciones de búsqueda en vida con los colectivos Unidas por Amor a Nuestros Desaparecidos y Familiares Enlaces Xalapa, en el CERESO de La Toma en el municipio de Amatlán de los Reyes, así mismo hubo difusión de boletines únicamente con el el colectivo Unidas pos Amor a Nuestros Desaparecidos en la cabecera municipal de Amatlán de los Reyes.</t>
+  </si>
+  <si>
+    <t>El total de las personas incluidas en los collages de ambos colectivos es de 46 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452198109_3e4ba7a8b9_z.jpg</t>
+  </si>
+  <si>
+    <t>Gutiérrez Zamora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 22 de agosto se llevó a cabo la jornada de difusión con el colectivo Unidas por Amor a Nuestros Desaparecidos, en los municipios de Gutiérrez Zamora, Tecolutla y Nautla. </t>
+  </si>
+  <si>
+    <t>El total de las personas incluidas en los collages de ambos colectivos es de 32 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452532188_2367c4f5d8_z.jpg</t>
+  </si>
+  <si>
+    <t>Tecolutla</t>
+  </si>
+  <si>
+    <t>Cazones de Herrera</t>
+  </si>
+  <si>
+    <t>El día 6 de septiembre la oficina de Búsqueda Inmediata realizó difusión en los municipios de Cazones,  Tuxpan y Tihuatlán</t>
+  </si>
+  <si>
+    <t>Se realizó 2 collages con los boletines de 24 personas reportadas como desaparecidas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452037576_26e3973d3e_z.jpg</t>
+  </si>
+  <si>
+    <t>Tihuatlán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papantla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El día 7 de septiembre se realizó una difusión en Papantla y en las localidades de Mozutla, Pital, Santa Águeda y la Grandeza, como parte de las acciones de la oficina de búsqueda inmediata. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452048086_075995c418_z.jpg</t>
+  </si>
+  <si>
+    <t>21 de septiembre En la ciudad de Veracruz en coordinación y colaborativamente, la Comisión Estatal de Búsqueda Veracruz con el CICR Delegación Regional México, se llevó a cabo el primer taller sobre el Protocolo Homologado de Búsqueda para Familiares de Personas Desaparecidas. Presentes integrantes de los Colectivos Justicia Y Dignidad Veracruz, Red de Madres Veracruz y Unidos por la Paz Veracruz.</t>
+  </si>
+  <si>
+    <t>El taller estuvo dirigido a 15 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452358369_e7d10d52d4_z.jpg</t>
+  </si>
+  <si>
+    <t>El 20 de septiembre, la lic. Brenda Cerón Chagoya Encargada de Despacho y personal de la Comisión Estatal de Búsqueda, impartieron una capacitación sobre el Protocolo Homologado de Búsqueda y Búsqueda de Mujeres, Niñas y Adolescentes, a enlaces regionales del Instituto Veracruzano de Asuntos Indígenas,</t>
+  </si>
+  <si>
+    <t>La charla fue impartida a 9 personas del Instituto Veracruzano de Asuntos Indígenas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452060006_24b1afd503_z.jpg</t>
+  </si>
+  <si>
+    <t>Tequila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 21 de septiembre personal de la CEBV impartió la charla a madres y padres de familias, así como a alumnado del CBTa 280 Tequila, Ver. sobre prevención y atención de reportes ante la desaparición de niñas, niños y adolescentes. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452066031_cc47c72dd7_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misantla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En los meses de julio a septiembre de 2022 se impartieron talleres para la capacitación de células de búsqueda municipales en Misantla, Martínez de la Torre, San Andrés Tuxtla, Chicontepec, Tantoyuca, Huatusco y Tequila. </t>
+  </si>
+  <si>
+    <t>Se capacitó a 165 servidoras y servidores públicos</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452600408_841c77ab93_z.jpg</t>
+  </si>
+  <si>
+    <t>Tantoyuca</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huatusco </t>
+  </si>
+  <si>
+    <t>Catemaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 21 al 22 de septiembre se llevaron a cabo acciones de difusión en los municipios de Catemaco, San Andrés Tuxtla, Tierra Blanca, así como acciones de búsqueda en vida en dichos municipios. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como parte del material se incluyeron collage con las fotografías de 37 personas reportadas como desaparecidas. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52452541015_33f285d337_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> San Andrés Tuxtla</t>
+  </si>
+  <si>
+    <t>Ozuluama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 3 al 5 de de octubre de 2022, se realizaron acciones de difusión y búsqueda en vida, en Centros de Reinserción Social y en plazas públicas en lo municipios de Ozuluama, Pánuco, Tempoal, Tantoyuca y Chicontepec. </t>
+  </si>
+  <si>
+    <t>Octubre - Diciembre</t>
+  </si>
+  <si>
+    <t>7 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52634144594_c7e1bd9849_z.jpg</t>
+  </si>
+  <si>
+    <t>Pánuco</t>
+  </si>
+  <si>
+    <t>Tempoal</t>
+  </si>
+  <si>
+    <t>Pajapan</t>
+  </si>
+  <si>
+    <t>Los días 10, 11 y 12 de octubre de 2022 en compañía de los colectivos Madres en Búsqueda Belén González y Unidos por Amor A Ti, se realizaron acciones de difusión de boletines de búsqueda de 32 personas desaparecidas esto en plazas públicas de los municipios de Pajapan, Tatahuicapan y Mecayapan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 personas </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52634400218_06864f0521_z.jpg</t>
+  </si>
+  <si>
+    <t>Tatahuicapan de Juárez</t>
+  </si>
+  <si>
+    <t>Mecayapán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los días 18, 19 y 20 de octubre, en acompañamiento al colectivo Familiares en Búsqueda María Herrera, se realizaron acciones de búsqueda en los Centros de Reinserción Social de los municipios de Coatzacoalcos, Acayucan, Amatlán de los Reyes y Pacho Viejo. </t>
+  </si>
+  <si>
+    <t>164 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52634189149_564d9b3f9e_z.jpg</t>
+  </si>
+  <si>
+    <t>Pacho Viejo (Coatepec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El día 4 de noviembre se realizó la segunda Jornada de Difusión del Colectivo Solecito de Veracruz, en el exterior de las instalaciones de la USBI Veracruz. </t>
+  </si>
+  <si>
+    <t>57 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52635293829_27cd0c59b1_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del 8 al 11 de noviembre 2022, personal de esta Comisión de Búsqueda en compañía del colectivo Madres Luna, realizó acciones de búsqueda en Centros de Reinserción Social de los municipios de Coatzacoalcos, Acayucan, San Andrés Tuxtla, Cosamaloapan y Amatlán de los Reyes. </t>
+  </si>
+  <si>
+    <t>20 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52636086073_1630fc1582_z.jpg</t>
+  </si>
+  <si>
+    <t>Los días 10 Y 11 de noviembre se llevó a cabo la Jornada: Memoria Viva por Nuestras Desaparecidas y Desaparecidos, actividad realizada en colaboración con el Colectivo Justicia Y Dignidad Veracruz, el Centro de Derechos Humanos Toaltepeyolo, y la actividad de USAID México, Promoviendo la Rendición de Cuentas por los Derechos Humanos (RED-DH); así como Unidas Colectiva, en las instalaciones del Instituto Tecnológico de Veracruz</t>
+  </si>
+  <si>
+    <t>50 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52636094275_bd3bc5a4db_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 22 de noviembre se llevó a cabo la charla "Mecanismos para la búsqueda y localización de mujeres, niñas y adolescentes", al equipo de la Secretaría De Protección Civil Del Estado de Veracruz, en el marco del Día Internacional para la Eliminación de la Violencia contra las Mujeres. </t>
+  </si>
+  <si>
+    <t>17 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52635145717_a5e7129419_z.jpg</t>
+  </si>
+  <si>
+    <t>Ixhuatlán del Café</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 29 de noviembre se llevó a cabo la capacitación "Atención de Reportes y Protocolo para la Búsqueda de Personas", impartido por personal de la Comisión Estatal de Búsqueda de Personas a personal del Ayuntamiento de Ixhuatlan del Café. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">46 personas </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/52635721236_0f4437ed8d_z.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 30 de noviembre del 2022 personal de esta Comisión de Búsqueda en compañía del colectivo Familiares en Búsqueda Hasta Encontrarles, realizaron acciones de búsqueda en vida en Centros de Reinserción Social. </t>
+  </si>
+  <si>
+    <t>12 personas</t>
+  </si>
+  <si>
+    <t>13 personas</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118407608_24402a6ca2_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118604205_a97a99f609_k.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación en Protocolo Homologado de Búsqueda y Búsqueda con enfoque diferenciado dirigido a Secretaría de Seguridad Pública del estado, recién egresados del Centro de Estudios e Investigación en Seguridad (CEIS)</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54117287472_78fec4dc6a_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118150816_5510ead5bd_k.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54118427928_41f3ae95ec_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54132974516_439e039892_h.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación sobre el Protocolo Homologado de Búsqueda y Búsqueda con Perspectiva de Género y Enfoque Diferenciado a servidoras y servidoras públicos de los ayuntamientos de Coatepec, Xalapa, Xico y Tlalnelhuayocan (capacitación realizada en una sede de Xalapa).</t>
+  </si>
+  <si>
+    <t>Tlalnehuayocan</t>
+  </si>
+  <si>
+    <t>Xico</t>
+  </si>
+  <si>
+    <t>Coatepec</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133432070_b1db246c20_h.jpg</t>
+  </si>
+  <si>
+    <t>Taller para el reforzamiento de Grupos de Búsqueda Municipales a a personas servidoras públicas de los ayuntamientos den seguimiento al Plan Integral de Búsqueda Inmediata, a través de la conformación de Grupos de Búsqueda Municipales en el Estado de Veracruz con la Temática Protocolo Homologado de Búsqueda y Búsqueda con Perspectiva de Género y Enfoque Diferenciado.</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133247228_8b17bcad53_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jilotepec </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133079403_8b66380ed3_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54131928402_3453cebf3a_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naolinco </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133227190_d1d81b4922_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133032743_8fea2f933d_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54131894472_bb16a97a19_h.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación a municipios del Estado en la implementación del Programa de trabajo para atender la solicitud de AVGM por desaparición de Niñas, Adolescentes y Mujeres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiliano Zapata </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133650860_591bfbbe91_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación sobre la Búsqueda con perspectiva de género y enfoque diferencial a titulares de las Unidades de Género de la Administración Pública. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133528944_48edb3f728_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación sobre el uso y manejo de Drones dirigido a Servidoras y servidores Públicos de la Policía Municipal del Ayuntamiento de Xalapa. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54132330562_8f2ee482fe_b.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación sobre Despliegue Operativo de Busqueda Inmediata y Búsqueda con enfoque diferencial y perspectiva de Género a Personal de Seguridad Pública del Ayuntamiento de Coatepec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coatepec </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54132327107_25112afdba_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133625610_98bf89f8a1_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación sobre Protocolo Homologado de Búsqueda y Búsqueda con Perspectiva de Género al personal de la Dirección de Educación y Juventud del Ayuntamiento de Xalapa. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133618100_ff173dfea6_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tierra Blanca </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133154936_d12d91d33e_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133495194_d42de10cf4_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133604625_dbbca725a0_h.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54132262277_a7f1364d55_b.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133368278_aad909597d_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teocelo </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133365058_71ceabcb4c_h.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charla “Búsqueda de niñas, niños y adolescentes” a estudiantes de nivel básico. </t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54132234362_03441fb079_h.jpg</t>
+  </si>
+  <si>
+    <t>Minatitlán</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/65535/54133071026_f9486d923d_b.jpg</t>
+  </si>
+  <si>
+    <t>Capacitación sobre el Protocolo Homologado de Búsqueda y Búsqueda con enfoque diferenciado a Agentes Municipales, Subagentes municipales, Policías Municipales y Auxiliares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Álamo Temapache </t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +1325,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +1362,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2DEFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +1449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -391,18 +1469,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -429,6 +1504,110 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -750,13 +1929,13 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -787,7 +1966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="100.15" customHeight="1">
+    <row r="3" spans="1:7" ht="100.2" customHeight="1">
       <c r="A3" s="3">
         <v>30087</v>
       </c>
@@ -827,414 +2006,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1171708-86FB-4E88-918F-0FD5DD54ABB4}">
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="12">
-        <v>30016</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="12">
-        <v>30028</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A4" s="12">
-        <v>30061</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="12">
-        <v>30087</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A6" s="12">
-        <v>30111</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="12">
-        <v>30204</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="12">
-        <v>30206</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="12">
-        <v>30131</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A10" s="12">
-        <v>30114</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A11" s="12">
-        <v>30211</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A12" s="12">
-        <v>30102</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A13" s="12">
-        <v>30109</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A14" s="12">
-        <v>30183</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A15" s="12">
-        <v>30023</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A16" s="12">
-        <v>30010</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A17" s="12">
-        <v>30039</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A18" s="12">
-        <v>30039</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A19" s="12">
-        <v>30174</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A20" s="12">
-        <v>30044</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A21" s="12">
-        <v>30044</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E8">
-    <sortCondition ref="A1"/>
-  </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{ED4B3186-ADB2-41F5-B15B-30DFBB6B6FA4}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{9812E14A-1D34-498B-A476-E58A3DF4964E}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{2CCE62CB-4EE5-48C9-A4C5-EBE06AA81DE6}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{DEDC7E9C-A7B6-495A-86F8-0F86BDF323D3}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{9145E965-22C0-4890-B3FF-1B183BA72A15}"/>
-    <hyperlink ref="E5" r:id="rId6" xr:uid="{75A8BA05-0C4B-451C-9057-B2A2460E226C}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{1B2C20C5-8510-4E22-AE78-05979D05A7DA}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{0C538DC2-6335-4AB9-A668-5AA996C5051D}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{14F5B356-7D74-4273-B65A-020B31A0AB9E}"/>
-    <hyperlink ref="E11:E16" r:id="rId10" display="https://live.staticflickr.com/65535/52047939053_1fe032c3cf_c.jpg " xr:uid="{A8DA4446-865E-4257-82A6-94E53D7E7793}"/>
-    <hyperlink ref="E17" r:id="rId11" xr:uid="{B13A69CB-9847-4D28-A5FD-C080D8713D33}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{7393CAC2-BB49-47D9-9BEF-2EC5B19A8A9C}"/>
-    <hyperlink ref="E19" r:id="rId13" xr:uid="{D51D9527-1DD7-4789-AC16-12CD79695091}"/>
-    <hyperlink ref="E20" r:id="rId14" xr:uid="{95F2D1C1-E0C8-4A3C-9331-D915D8DD4A2A}"/>
-    <hyperlink ref="E21" r:id="rId15" xr:uid="{2A1366AD-8CDD-4BCC-8916-4CB14460F032}"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId16"/>
-  <headerFooter>
-    <oddFooter>&amp;LComisión Estatal de Búsqueda de Veracruz&amp;R&amp;A</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24933A31-5F83-49D9-B067-7C2C50843CB2}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1242,18 +2013,18 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1285,7 +2056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="100.15" customHeight="1">
+    <row r="2" spans="1:9" ht="100.2" customHeight="1">
       <c r="A2" s="3">
         <v>30087</v>
       </c>
@@ -1315,38 +2086,38 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="H4" s="22"/>
+      <c r="H4" s="21"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="H5" s="22"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="H7" s="22"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="H8" s="22"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="H9" s="22"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="H10" s="22"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="H11" s="22"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="H12" s="22"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="H13" s="22"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="H14" s="22"/>
+      <c r="H14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1362,4 +2133,5278 @@
     <oddFooter>&amp;LComisión Estatal de Búsqueda de Veracruz&amp;R&amp;A</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1171708-86FB-4E88-918F-0FD5DD54ABB4}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="16.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="11.44140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A2" s="12">
+        <v>30016</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A3" s="12">
+        <v>30028</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A4" s="12">
+        <v>30061</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A5" s="12">
+        <v>30087</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A6" s="12">
+        <v>30111</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A7" s="12">
+        <v>30204</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A8" s="12">
+        <v>30206</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A9" s="12">
+        <v>30131</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A10" s="12">
+        <v>30114</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A11" s="12">
+        <v>30211</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A12" s="12">
+        <v>30102</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A13" s="12">
+        <v>30109</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A14" s="12">
+        <v>30183</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A15" s="12">
+        <v>30023</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" customHeight="1">
+      <c r="A16" s="12">
+        <v>30010</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A17" s="12">
+        <v>30039</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A18" s="12">
+        <v>30039</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A19" s="12">
+        <v>30174</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A20" s="12">
+        <v>30044</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A21" s="12">
+        <v>30044</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2021</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{ED4B3186-ADB2-41F5-B15B-30DFBB6B6FA4}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{9812E14A-1D34-498B-A476-E58A3DF4964E}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{2CCE62CB-4EE5-48C9-A4C5-EBE06AA81DE6}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{DEDC7E9C-A7B6-495A-86F8-0F86BDF323D3}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{9145E965-22C0-4890-B3FF-1B183BA72A15}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{75A8BA05-0C4B-451C-9057-B2A2460E226C}"/>
+    <hyperlink ref="F3" r:id="rId7" xr:uid="{1B2C20C5-8510-4E22-AE78-05979D05A7DA}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{0C538DC2-6335-4AB9-A668-5AA996C5051D}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{14F5B356-7D74-4273-B65A-020B31A0AB9E}"/>
+    <hyperlink ref="F11:F16" r:id="rId10" display="https://live.staticflickr.com/65535/52047939053_1fe032c3cf_c.jpg " xr:uid="{A8DA4446-865E-4257-82A6-94E53D7E7793}"/>
+    <hyperlink ref="F17" r:id="rId11" xr:uid="{B13A69CB-9847-4D28-A5FD-C080D8713D33}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{7393CAC2-BB49-47D9-9BEF-2EC5B19A8A9C}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{D51D9527-1DD7-4789-AC16-12CD79695091}"/>
+    <hyperlink ref="F20" r:id="rId14" xr:uid="{95F2D1C1-E0C8-4A3C-9331-D915D8DD4A2A}"/>
+    <hyperlink ref="F21" r:id="rId15" xr:uid="{2A1366AD-8CDD-4BCC-8916-4CB14460F032}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
+  <headerFooter>
+    <oddFooter>&amp;LComisión Estatal de Búsqueda de Veracruz&amp;R&amp;A</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945B6F31-0901-4A8A-8AB6-C7B845784F70}">
+  <dimension ref="A1:G118"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="39">
+        <v>30087</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="39">
+        <v>30014</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="39">
+        <v>30045</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="39">
+        <v>30141</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="39">
+        <v>30003</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="39">
+        <v>30039</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="39">
+        <v>30061</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G8" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="39">
+        <v>30206</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="39">
+        <v>30039</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="39">
+        <v>30118</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="39">
+        <v>30118</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="39">
+        <v>30085</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="42">
+        <v>30189</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="42">
+        <v>30131</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="42">
+        <v>30087</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="42">
+        <v>30014</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="42">
+        <v>30039</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="42">
+        <v>30193</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="42">
+        <v>17028</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="42">
+        <v>30039</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="42">
+        <v>30201</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="42">
+        <v>30147</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="42">
+        <v>30124</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="42">
+        <v>30003</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="42">
+        <v>30058</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42">
+        <v>30210</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="42">
+        <v>30072</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="42">
+        <v>30124</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="42">
+        <v>30131</v>
+      </c>
+      <c r="B30" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="42">
+        <v>30193</v>
+      </c>
+      <c r="B31" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="42">
+        <v>30087</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="42">
+        <v>30044</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="42">
+        <v>30045</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="42">
+        <v>30039</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G35" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="42">
+        <v>30044</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="42">
+        <v>30118</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="42">
+        <v>30136</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="42">
+        <v>30001</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G39" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="42">
+        <v>30132</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G40" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="42">
+        <v>30128</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="42">
+        <v>30128</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="42">
+        <v>30128</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="42">
+        <v>30193</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="42">
+        <v>30102</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="45">
+        <v>30189</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="G46" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="45">
+        <v>30131</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="G47" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="45">
+        <v>30044</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="45">
+        <v>30061</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="G49" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="45">
+        <v>30108</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G50" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="45">
+        <v>30067</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="G51" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="45">
+        <v>30103</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="G52" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="45">
+        <v>30051</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D53" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="G53" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="45">
+        <v>30037</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D54" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="45">
+        <v>30203</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="G55" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="45">
+        <v>30039</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F56" s="45">
+        <v>0</v>
+      </c>
+      <c r="G56" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="45">
+        <v>30206</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="45">
+        <v>30082</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G58" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="45">
+        <v>30039</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="45">
+        <v>30100</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="45">
+        <v>30193</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="45">
+        <v>30028</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G62" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="45">
+        <v>30105</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="45">
+        <v>30087</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G64" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="45">
+        <v>30057</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="45">
+        <v>30112</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="D66" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G66" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="45">
+        <v>30193</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="45">
+        <v>30009</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="45">
+        <v>30030</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="45">
+        <v>30115</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G70" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="45">
+        <v>30138</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="45">
+        <v>30118</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F72" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G72" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="45">
+        <v>30135</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G73" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="45">
+        <v>30062</v>
+      </c>
+      <c r="B74" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G74" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="45">
+        <v>30014</v>
+      </c>
+      <c r="B75" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E75" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="F75" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G75" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="45">
+        <v>30069</v>
+      </c>
+      <c r="B76" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="45">
+        <v>30158</v>
+      </c>
+      <c r="B77" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E77" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F77" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G77" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="45">
+        <v>30114</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E78" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="F78" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="G78" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="45">
+        <v>30033</v>
+      </c>
+      <c r="B79" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F79" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="45">
+        <v>30189</v>
+      </c>
+      <c r="B80" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D80" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G80" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="45">
+        <v>30175</v>
+      </c>
+      <c r="B81" s="45" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="D81" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F81" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="45">
+        <v>30124</v>
+      </c>
+      <c r="B82" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D82" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E82" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="F82" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="G82" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="45">
+        <v>30193</v>
+      </c>
+      <c r="B83" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E83" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="G83" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="45">
+        <v>30087</v>
+      </c>
+      <c r="B84" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E84" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="G84" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="45">
+        <v>30168</v>
+      </c>
+      <c r="B85" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C85" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E85" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="G85" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="45">
+        <v>30109</v>
+      </c>
+      <c r="B86" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C86" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E86" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G86" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="45">
+        <v>30102</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G87" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="45">
+        <v>30141</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E88" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="45">
+        <v>30058</v>
+      </c>
+      <c r="B89" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C89" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E89" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F89" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G89" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="45">
+        <v>30155</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E90" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F90" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G90" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="45">
+        <v>30071</v>
+      </c>
+      <c r="B91" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="C91" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="45">
+        <v>30168</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="G92" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="45">
+        <v>30032</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>310</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D93" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F93" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G93" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="45">
+        <v>30141</v>
+      </c>
+      <c r="B94" s="45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C94" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D94" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G94" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="45">
+        <v>30174</v>
+      </c>
+      <c r="B95" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E95" s="45" t="s">
+        <v>312</v>
+      </c>
+      <c r="F95" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="G95" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="46">
+        <v>30121</v>
+      </c>
+      <c r="B96" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E96" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F96" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="46">
+        <v>30123</v>
+      </c>
+      <c r="B97" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D97" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E97" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F97" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G97" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="46">
+        <v>30161</v>
+      </c>
+      <c r="B98" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D98" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E98" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F98" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G98" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="46">
+        <v>30155</v>
+      </c>
+      <c r="B99" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E99" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F99" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G99" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="46">
+        <v>30058</v>
+      </c>
+      <c r="B100" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E100" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F100" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="G100" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="46">
+        <v>30122</v>
+      </c>
+      <c r="B101" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="C101" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D101" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E101" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F101" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G101" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="46">
+        <v>30209</v>
+      </c>
+      <c r="B102" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="C102" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D102" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F102" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G102" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="46">
+        <v>30104</v>
+      </c>
+      <c r="B103" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="C103" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="D103" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F103" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G103" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="46">
+        <v>30039</v>
+      </c>
+      <c r="B104" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E104" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F104" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G104" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="46">
+        <v>30003</v>
+      </c>
+      <c r="B105" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D105" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F105" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G105" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="46">
+        <v>30014</v>
+      </c>
+      <c r="B106" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E106" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F106" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G106" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="46">
+        <v>30038</v>
+      </c>
+      <c r="B107" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D107" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F107" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="G107" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="46">
+        <v>30028</v>
+      </c>
+      <c r="B108" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="F108" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G108" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="46">
+        <v>30039</v>
+      </c>
+      <c r="B109" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C109" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G109" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="46">
+        <v>30003</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C110" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E110" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F110" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G110" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="46">
+        <v>30141</v>
+      </c>
+      <c r="B111" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C111" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F111" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G111" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="46">
+        <v>30045</v>
+      </c>
+      <c r="B112" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E112" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F112" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G112" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="46">
+        <v>30014</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C113" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F113" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G113" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="46">
+        <v>30193</v>
+      </c>
+      <c r="B114" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C114" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E114" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="F114" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G114" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="46">
+        <v>30087</v>
+      </c>
+      <c r="B115" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="C115" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D115" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E115" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="F115" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G115" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="46">
+        <v>30080</v>
+      </c>
+      <c r="B116" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E116" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="F116" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G116" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="46">
+        <v>30039</v>
+      </c>
+      <c r="B117" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C117" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D117" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E117" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="F117" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G117" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="46">
+        <v>30003</v>
+      </c>
+      <c r="B118" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C118" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="D118" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E118" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="F118" s="46" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" s="46">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A4592F54-5028-431F-BC2A-3F6A25BED2DF}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{5A7B8694-37E9-4977-A98B-35C4C4670BA2}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{71EED385-7A8B-41A5-9EEC-A15B087C5CC6}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{52FE5A36-7C9A-4285-A659-DB185B351157}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{E510E748-E7F7-4739-86B9-1517CD309839}"/>
+    <hyperlink ref="F3" r:id="rId6" xr:uid="{8A18F6E3-C077-472A-B735-A0B219EE17FC}"/>
+    <hyperlink ref="F4:F6" r:id="rId7" display="https://live.staticflickr.com/65535/52131300967_7e7e3913ae_c.jpg" xr:uid="{EBB1F18D-6648-4C9B-94B8-1EBF70CEC8AD}"/>
+    <hyperlink ref="F8:F9" r:id="rId8" display="https://live.staticflickr.com/65535/52133426177_39dc98f15d_z.jpg" xr:uid="{617D2933-453F-4B9E-B966-718D6605C806}"/>
+    <hyperlink ref="F13" r:id="rId9" xr:uid="{5AEB8C37-DC94-403D-AD6F-AFBFBCFEB609}"/>
+    <hyperlink ref="F96" r:id="rId10" xr:uid="{50F29A7C-A1B2-4F1B-B886-2D7214D45DCF}"/>
+    <hyperlink ref="F101" r:id="rId11" xr:uid="{F4940464-8C8F-475E-BB4A-9C17CF2A1389}"/>
+    <hyperlink ref="F104" r:id="rId12" xr:uid="{3FC6CF8F-7C09-401D-8710-9C4B77DE98DE}"/>
+    <hyperlink ref="F108" r:id="rId13" xr:uid="{D0AEACD2-8D70-46B4-A9FE-21387A758C70}"/>
+    <hyperlink ref="F109" r:id="rId14" xr:uid="{BC86491A-01F1-4AEF-90BC-C0BE5E762D50}"/>
+    <hyperlink ref="F114" r:id="rId15" xr:uid="{0F1FFB6C-F027-453A-BDBE-4DB224DD452E}"/>
+    <hyperlink ref="F115" r:id="rId16" xr:uid="{ADF00CC0-8645-43FE-AA3F-321F1663ABC2}"/>
+    <hyperlink ref="F117" r:id="rId17" xr:uid="{D302CB1D-9D5C-4322-9A0C-D1FF1AF2276E}"/>
+    <hyperlink ref="F116" r:id="rId18" xr:uid="{F5700950-EF0B-4AA5-B42E-1E591E1188C3}"/>
+    <hyperlink ref="F97" r:id="rId19" xr:uid="{9E9023E4-19E7-4B9A-A9B4-0A65BADF09AF}"/>
+    <hyperlink ref="F98" r:id="rId20" xr:uid="{7D7D4793-A9D8-4C6E-B352-EFFC72C24842}"/>
+    <hyperlink ref="F99" r:id="rId21" xr:uid="{3DA018DF-13FE-4644-A187-9D2A49FD558D}"/>
+    <hyperlink ref="F100" r:id="rId22" xr:uid="{7B6DD951-4165-4AC5-8616-44A48E2EB91E}"/>
+    <hyperlink ref="F118" r:id="rId23" xr:uid="{144A6F70-5FC4-4109-A854-9BCCFD32150C}"/>
+    <hyperlink ref="F102" r:id="rId24" xr:uid="{581C272F-BECC-41AC-94E5-1C1377A8DB92}"/>
+    <hyperlink ref="F103" r:id="rId25" xr:uid="{1B6FBB6B-FAA0-4484-BBFB-099DE91966C1}"/>
+    <hyperlink ref="F105:F107" r:id="rId26" display="https://live.staticflickr.com/65535/52634189149_564d9b3f9e_z.jpg" xr:uid="{BB3D3FA6-7B08-4B3F-8CFB-2285E841195A}"/>
+    <hyperlink ref="F110" r:id="rId27" xr:uid="{9278F4E3-8377-4032-BA3C-044EBE516DC7}"/>
+    <hyperlink ref="F111" r:id="rId28" xr:uid="{85F88B1F-2CF0-4576-844F-058BB56DE17C}"/>
+    <hyperlink ref="F112" r:id="rId29" xr:uid="{B027261B-B194-42A1-94D5-621298522E26}"/>
+    <hyperlink ref="F113" r:id="rId30" xr:uid="{359D4371-5F30-4CDC-B82A-578A1C34F82A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId31"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB27CED1-422C-4368-95B7-A75A52CAE08C}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="24">
+        <v>30128</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24">
+        <v>30086</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="24">
+        <v>0</v>
+      </c>
+      <c r="G4" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="24">
+        <v>30001</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24">
+        <v>30132</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24">
+        <v>30026</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24">
+        <v>30079</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24">
+        <v>30156</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24">
+        <v>30010</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0</v>
+      </c>
+      <c r="G10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24">
+        <v>30131</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0</v>
+      </c>
+      <c r="G12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24">
+        <v>30004</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24">
+        <v>30183</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="24">
+        <v>0</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="24">
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24">
+        <v>30176</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0</v>
+      </c>
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24">
+        <v>30002</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="24">
+        <v>0</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="24">
+        <v>30004</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24">
+        <v>30009</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24">
+        <v>30191</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="24">
+        <v>30024</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0</v>
+      </c>
+      <c r="G23" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="24">
+        <v>30106</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="24">
+        <v>30057</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="24">
+        <v>0</v>
+      </c>
+      <c r="G25" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="24">
+        <v>30134</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0</v>
+      </c>
+      <c r="G26" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="24">
+        <v>30095</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0</v>
+      </c>
+      <c r="G27" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="24">
+        <v>30162</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0</v>
+      </c>
+      <c r="G28" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="24">
+        <v>30151</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="24">
+        <v>0</v>
+      </c>
+      <c r="G29" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26">
+        <v>30039</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="27">
+        <v>45055</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26">
+        <v>30110</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="27">
+        <v>45057</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26">
+        <v>30121</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="27">
+        <v>45071</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="26">
+        <v>30087</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D33" s="27">
+        <v>45091</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="26">
+        <v>30160</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="27">
+        <v>45099</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="26">
+        <v>30087</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="27">
+        <v>45104</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="28">
+        <v>30087</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="30">
+        <v>45121</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="28">
+        <v>30087</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="30">
+        <v>45133</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="28">
+        <v>30087</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="30">
+        <v>45170</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="28">
+        <v>30063</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="30">
+        <v>45176</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="28">
+        <v>30196</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="30">
+        <v>45190</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="28">
+        <v>30016</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="30">
+        <v>45197</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="28">
+        <v>30191</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="30">
+        <v>45197</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="33">
+        <v>0</v>
+      </c>
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="28">
+        <v>30134</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="30">
+        <v>45197</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="33">
+        <v>0</v>
+      </c>
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="34">
+        <v>30036</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="36">
+        <v>45204</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="34">
+        <v>30009</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="36">
+        <v>45218</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G45" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="34">
+        <v>30092</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="36">
+        <v>45239</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="34">
+        <v>30182</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="36">
+        <v>45251</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="34">
+        <v>30039</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="36">
+        <v>45253</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="34">
+        <v>30065</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="36">
+        <v>45259</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="34">
+        <v>30193</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="36">
+        <v>45260</v>
+      </c>
+      <c r="E50" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="34">
+        <v>30039</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="36">
+        <v>45278</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="34">
+        <v>30044</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="36">
+        <v>45280</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G52" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="34">
+        <v>30047</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="36">
+        <v>45282</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="34">
+        <v>30189</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="36">
+        <v>45287</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G54" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="34">
+        <v>30102</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="36">
+        <v>45288</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="G55" s="37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC103F2-2AF7-4186-A68C-2F6491D639D3}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24">
+        <v>30141</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="47">
+        <v>45300</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="24">
+        <v>30115</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="49">
+        <v>45310</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D4" s="49">
+        <v>45317</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="24">
+        <v>30087</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="49">
+        <v>45320</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24">
+        <v>30204</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="49">
+        <v>45369</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="26">
+        <v>30065</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="51">
+        <v>45401</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="26">
+        <v>30087</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D8" s="51">
+        <v>45414</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="26">
+        <v>30092</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D9" s="51">
+        <v>45419</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="26">
+        <v>30112</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="51">
+        <v>45434</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="26">
+        <v>30087</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D11" s="51">
+        <v>45435</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="G11" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="26">
+        <v>30093</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="51">
+        <v>45436</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="26">
+        <v>30131</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D13" s="51">
+        <v>45456</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G13" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="26">
+        <v>30038</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D14" s="51">
+        <v>45469</v>
+      </c>
+      <c r="E14" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G14" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="26">
+        <v>30087</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="51">
+        <v>45469</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G15" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="26">
+        <v>30092</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D16" s="51">
+        <v>45469</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="26">
+        <v>30182</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="51">
+        <v>45469</v>
+      </c>
+      <c r="E17" s="58" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>357</v>
+      </c>
+      <c r="G17" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="53">
+        <v>30160</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>398</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="55">
+        <v>45477</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="56" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="53">
+        <v>30108</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="55">
+        <v>45481</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="G19" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="53">
+        <v>30087</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D20" s="55">
+        <v>45486</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>392</v>
+      </c>
+      <c r="G20" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="53">
+        <v>30164</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="55">
+        <v>45497</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="53">
+        <v>30109</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" s="55">
+        <v>45498</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="53">
+        <v>30160</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="55">
+        <v>45503</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>388</v>
+      </c>
+      <c r="G23" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="53">
+        <v>30206</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="55">
+        <v>45505</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="53">
+        <v>30062</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="55">
+        <v>45513</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="G25" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="53">
+        <v>30174</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C26" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="55">
+        <v>45527</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F26" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G26" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="53">
+        <v>30087</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D27" s="55">
+        <v>45544</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F27" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="G27" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="53">
+        <v>30038</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="55">
+        <v>45545</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>381</v>
+      </c>
+      <c r="G28" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="53">
+        <v>30038</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="D29" s="55">
+        <v>45559</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G29" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="53">
+        <v>30087</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D30" s="55">
+        <v>45562</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="G30" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="53">
+        <v>30087</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="55">
+        <v>45565</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>399</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>374</v>
+      </c>
+      <c r="G31" s="57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E8740DB1-7202-4829-8000-CD09AC159785}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{6C5AC373-E933-4FF6-8F0D-8F7E065E7100}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B7EB69A8-6560-4CE6-BB3C-0A742B3CBE5E}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{8413BE9C-D741-4A9F-BBD9-5DF16700F487}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{BAD5D9E0-0820-45BC-A23F-6AAAC177539D}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{1E4CAEA6-4B9B-4AE7-9E57-C91D8FA6FBB2}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{B3E575C3-2BFD-41B3-9AF8-146542C8D5FC}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{1BC4B8EB-5E48-4FB4-AECA-100D46B1A48F}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{721B0CD5-B1BD-463D-8364-BCDFFB67B1F2}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{36853DDC-B024-40F6-BFCA-561829E946A6}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{5969EF6A-FC7D-4D00-8A51-C2A4A147696D}"/>
+    <hyperlink ref="F15" r:id="rId12" xr:uid="{5ED8CB0B-F708-4881-B2E0-00FEF485A2DC}"/>
+    <hyperlink ref="F13" r:id="rId13" xr:uid="{B344B781-C302-4128-A550-09B943C1B33A}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{B9AE881A-7569-4F10-8AE2-EFCE5F4BD4C0}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{DA6D219E-F954-4A93-9BBD-6C43B058CCD5}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{8F087C9F-6E08-4C6E-8749-93B023BC6F5E}"/>
+    <hyperlink ref="F18" r:id="rId17" xr:uid="{898309C7-3EC1-4F7B-A0B4-1E7C9FD286DA}"/>
+    <hyperlink ref="F19" r:id="rId18" xr:uid="{0DD05823-BDBA-4271-9D72-BCD22B194E92}"/>
+    <hyperlink ref="F20" r:id="rId19" xr:uid="{ACEA5923-925A-4CA5-9AC5-62744C5A52E6}"/>
+    <hyperlink ref="F21" r:id="rId20" xr:uid="{66BCAB63-2D01-4301-A169-961E2E1E7A45}"/>
+    <hyperlink ref="F22" r:id="rId21" xr:uid="{E3FAEF67-260D-409C-88CA-73D41935FC89}"/>
+    <hyperlink ref="F23" r:id="rId22" xr:uid="{2B4249F9-826F-452A-A682-5A86F9E3DEAF}"/>
+    <hyperlink ref="F24" r:id="rId23" xr:uid="{DD2D6C87-05A5-4377-B8D9-C63A8047AE87}"/>
+    <hyperlink ref="F26" r:id="rId24" xr:uid="{98B9BA43-969E-4FA9-917E-C757A8E9C430}"/>
+    <hyperlink ref="F27" r:id="rId25" xr:uid="{24CA0972-9C02-4433-9948-A8062C02F183}"/>
+    <hyperlink ref="F28" r:id="rId26" xr:uid="{1232463F-0311-43F8-A090-62976A7BB326}"/>
+    <hyperlink ref="F29" r:id="rId27" xr:uid="{E8D0932E-1518-4CC0-AC94-A94E4D200465}"/>
+    <hyperlink ref="F30" r:id="rId28" xr:uid="{2EF8C4DA-D56A-41B2-B50E-5B498B97304E}"/>
+    <hyperlink ref="F31" r:id="rId29" xr:uid="{B91E4787-3A4C-4B82-A6EC-D3A452AEA5BE}"/>
+    <hyperlink ref="F25" r:id="rId30" xr:uid="{86EE2B13-00AB-476B-97DA-C5C4EC0CE743}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>